--- a/data/hotels_by_city/Houston/Houston_shard_362.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_362.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55456-d12392416-Reviews-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Home2-Suites-By-Hilton-Baytown.h18566644.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,547 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r603024508-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>12392416</t>
+  </si>
+  <si>
+    <t>603024508</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>Was great location hotel was great people r nice I will be traveling to bay town next wknd an I will be attending the ho</t>
+  </si>
+  <si>
+    <t>Was great location great people there food was excellant I will be attending again soon clean rooms etc the best hotel I've been inn I cant complain my kids had great time bay town always has the best weather</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r602564996-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>602564996</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, poor service for blacks...</t>
+  </si>
+  <si>
+    <t>At first I really didn't realize it, but then my girlfriend pointed it out so I started paying attention to how attentive they were to others (of the white decent) than they were to us...they would speak to us, but show other guests special attention...they would make sure that they wanted for nothing, laugh and talk with them, then walk right past us...I figured maybe because of the part of town we were in, that's how they treat blacks out there...I love the hotel, just won't be staying at this location again...thanks...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>At first I really didn't realize it, but then my girlfriend pointed it out so I started paying attention to how attentive they were to others (of the white decent) than they were to us...they would speak to us, but show other guests special attention...they would make sure that they wanted for nothing, laugh and talk with them, then walk right past us...I figured maybe because of the part of town we were in, that's how they treat blacks out there...I love the hotel, just won't be staying at this location again...thanks...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r599393118-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>599393118</t>
+  </si>
+  <si>
+    <t>07/24/2018</t>
+  </si>
+  <si>
+    <t>A+ rating</t>
+  </si>
+  <si>
+    <t>Location, price, cleanliness, friendly staff, room setup...Everything was great. Did a last minute booking, called to confirm that my reservation was received and asked for extra towels and for my partner to be added to the reservation as he was arriving before me. The representative was helpful and accommodating to all of my requests. This was the first time that I actually had extra towels already placed in my room before arriving....that was a great touch. MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Location, price, cleanliness, friendly staff, room setup...Everything was great. Did a last minute booking, called to confirm that my reservation was received and asked for extra towels and for my partner to be added to the reservation as he was arriving before me. The representative was helpful and accommodating to all of my requests. This was the first time that I actually had extra towels already placed in my room before arriving....that was a great touch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r592593094-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>592593094</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r591522286-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>591522286</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This hotel met all my expectations. I was traveling with my 70 year old mother and my 12 year old daughter and we were all comfortable and happy with the accomodations. I was unaware of the pet policy. The next time we travel our pet will join us.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel met all my expectations. I was traveling with my 70 year old mother and my 12 year old daughter and we were all comfortable and happy with the accomodations. I was unaware of the pet policy. The next time we travel our pet will join us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r585973826-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>585973826</t>
+  </si>
+  <si>
+    <t>06/08/2018</t>
+  </si>
+  <si>
+    <t>Extended stay hotel room</t>
+  </si>
+  <si>
+    <t>Rooms are wonderful and spacious, kitchen is large with dishwasher and full size fridge, breakfast offers good variety, and the staff is exceptionally welcoming and friendly.Awesome complimentary laundry facility and the hotel is very quiet for being so close to the highway. You can't go wrong with this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>andrrabi, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2018</t>
+  </si>
+  <si>
+    <t>Rooms are wonderful and spacious, kitchen is large with dishwasher and full size fridge, breakfast offers good variety, and the staff is exceptionally welcoming and friendly.Awesome complimentary laundry facility and the hotel is very quiet for being so close to the highway. You can't go wrong with this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r576952449-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>576952449</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Great experience.</t>
+  </si>
+  <si>
+    <t>New hotel with very friendly staff.  Was greeted with a smile every time we came downstairs.  Hotel was located close to restaurants and convenient access to services around Baytown. Rooms were large and beds were comfortable. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Jamer S, Guest Relations Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2018</t>
+  </si>
+  <si>
+    <t>New hotel with very friendly staff.  Was greeted with a smile every time we came downstairs.  Hotel was located close to restaurants and convenient access to services around Baytown. Rooms were large and beds were comfortable. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r576779879-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>576779879</t>
+  </si>
+  <si>
+    <t>Terrible staff</t>
+  </si>
+  <si>
+    <t>Booked 3 months in advanced get there or room has been given away and they put us in a dirty room and say oh well that's all they have take it or leave it. Tubs dirty carpet front desk clerks are very rudeMoreShow less</t>
+  </si>
+  <si>
+    <t>John-HiltonHelp, on behalf of management at Home2 Suites by Hilton Baytown, responded to this reviewResponded May 3, 2018</t>
+  </si>
+  <si>
+    <t>Booked 3 months in advanced get there or room has been given away and they put us in a dirty room and say oh well that's all they have take it or leave it. Tubs dirty carpet front desk clerks are very rudeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r575822410-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>575822410</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Nice new property!</t>
+  </si>
+  <si>
+    <t>This is a very clean, modern and comfortable hotel with a nice kitchenette. Beds were super comfortable and staff was friendly. The complimentary breakfast was average. I liked the green flush option on the commode.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very clean, modern and comfortable hotel with a nice kitchenette. Beds were super comfortable and staff was friendly. The complimentary breakfast was average. I liked the green flush option on the commode.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r569784688-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>569784688</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>New, Clean, and great stay</t>
+  </si>
+  <si>
+    <t>Clean, new, and easily accessed via the highway, nice breakfast area.  Room (2 Queen studio suite) was perfect.  Room was impeccable.  Nice folks at the front desk.  Ate at nearby Luna's Mexican restaurant as per front desk's suggestion...and was not disappointed...thank you for being friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Jamer S, Guest Relations Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2018</t>
+  </si>
+  <si>
+    <t>Clean, new, and easily accessed via the highway, nice breakfast area.  Room (2 Queen studio suite) was perfect.  Room was impeccable.  Nice folks at the front desk.  Ate at nearby Luna's Mexican restaurant as per front desk's suggestion...and was not disappointed...thank you for being friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r568504713-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>568504713</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>IS A HIT OR MISS</t>
+  </si>
+  <si>
+    <t>only two people here will be able to handle and fix issues right, ERINN AND THOMAS!! if you have to deal with brittnay nothing will get done and dont ask for a maintence issue to be fix because the guy wont even try to go take a look this was in one room in the other room it took 3 days to go and when he did go he said there was nothing to be done when the ac is still leaking water, so you will have to wait untill the next day to talk to ERINN OR THOMAS to get things done because brittnay will act like she cant hear you. ASK FOR GM ERINN!!  Housekeeping is great, the ladies are so nice. free washer and dryers nice gym. pool is nice also but i guess the maintence "skipped" out in cleanning it for months now water is GREEN!!!  After taking with Erinn stuff got fixed. Do not know how this hotel will be with out them two. (Erinn &amp; Thomas)MoreShow less</t>
+  </si>
+  <si>
+    <t>only two people here will be able to handle and fix issues right, ERINN AND THOMAS!! if you have to deal with brittnay nothing will get done and dont ask for a maintence issue to be fix because the guy wont even try to go take a look this was in one room in the other room it took 3 days to go and when he did go he said there was nothing to be done when the ac is still leaking water, so you will have to wait untill the next day to talk to ERINN OR THOMAS to get things done because brittnay will act like she cant hear you. ASK FOR GM ERINN!!  Housekeeping is great, the ladies are so nice. free washer and dryers nice gym. pool is nice also but i guess the maintence "skipped" out in cleanning it for months now water is GREEN!!!  After taking with Erinn stuff got fixed. Do not know how this hotel will be with out them two. (Erinn &amp; Thomas)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r567980217-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>567980217</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>NICE Brand... POOR quality and cleanliness</t>
+  </si>
+  <si>
+    <t>Look for another hotel if you are looking for a CLEAN room and if you are a late breakfast eater. They don't have plenty of supplies for breakfast. This went on for 3 days in a row for us. The silverwares and plates are dirty in the room. So clean all before using them. Nice hotel just need the staff changed or trained to clean and provide quality service in the rooms and at the breakfast areas. MoreShow less</t>
+  </si>
+  <si>
+    <t>Look for another hotel if you are looking for a CLEAN room and if you are a late breakfast eater. They don't have plenty of supplies for breakfast. This went on for 3 days in a row for us. The silverwares and plates are dirty in the room. So clean all before using them. Nice hotel just need the staff changed or trained to clean and provide quality service in the rooms and at the breakfast areas. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r557396615-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>557396615</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>It was perfect accommodations for my husband and two kids! We stayed in the king suite! I loved the use of the washer and dryers downstairs! It was like a little apartment! We will definitely stay here again! Very clean rooms and staff was nice. Location was great! close to everything! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>It was perfect accommodations for my husband and two kids! We stayed in the king suite! I loved the use of the washer and dryers downstairs! It was like a little apartment! We will definitely stay here again! Very clean rooms and staff was nice. Location was great! close to everything! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r552350130-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>552350130</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>The staff at this location is amazing, they make you feel at home...they are sll well mannered</t>
+  </si>
+  <si>
+    <t>I stayed here for an extended time . They went above and beyond to ensure my comfort, The Room was always nice and clean and very convenient with a kitchenette, equipped with all you need away from home , plates cup, drinking glass etc.  Very good location close to shopping , supermarket and the MallMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for an extended time . They went above and beyond to ensure my comfort, The Room was always nice and clean and very convenient with a kitchenette, equipped with all you need away from home , plates cup, drinking glass etc.  Very good location close to shopping , supermarket and the MallMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r546246698-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>546246698</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Not Recommended for Business Travelers Until FEMA Families Vacate</t>
+  </si>
+  <si>
+    <t>Nice new hotel.  Bright rooms, convenient layout, cool little kitchen area.  Excellent location for petro/chem business travelers, close to plant and restaurants.  All the good, however, was negated by what I can only assumed are FEMA families overrunning the entire hotel.  Children playing in hallways, families camping out in breakfast area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Nice new hotel.  Bright rooms, convenient layout, cool little kitchen area.  Excellent location for petro/chem business travelers, close to plant and restaurants.  All the good, however, was negated by what I can only assumed are FEMA families overrunning the entire hotel.  Children playing in hallways, families camping out in breakfast area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r534225317-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>534225317</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <t>Poor customer relations toward FEMA evacuees.  When I received notice of the extension of time for FEMA, I tried to extend my stay, and was told there were no rooms available because they had already reserved them for other people. I had to pack up and leave on a weekday before i left to drive 80 miles for work.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Poor customer relations toward FEMA evacuees.  When I received notice of the extension of time for FEMA, I tried to extend my stay, and was told there were no rooms available because they had already reserved them for other people. I had to pack up and leave on a weekday before i left to drive 80 miles for work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r532479105-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>532479105</t>
+  </si>
+  <si>
+    <t>10/12/2017</t>
+  </si>
+  <si>
+    <t>Awesome hotel experience</t>
+  </si>
+  <si>
+    <t>Was here for Hurricane Harvey relief. Felt like home away from home during such a stressful time. The atmosphere was quite family oriented, the front terrace and inside lobby felt like a living room and a terrace for a great big extended family. I loved itMoreShow less</t>
+  </si>
+  <si>
+    <t>Was here for Hurricane Harvey relief. Felt like home away from home during such a stressful time. The atmosphere was quite family oriented, the front terrace and inside lobby felt like a living room and a terrace for a great big extended family. I loved itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r531331660-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>531331660</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Filled with FEMA Families</t>
+  </si>
+  <si>
+    <t>I just spent the night in the Home2Home hotel in Baytown, Texas. I travel daily and stay in 5 different hotels each week. I am at the top status level for Marriott and Hilton. While this is a Hilton brand hotel, I would consider it a Tier 4 hotel (Tier 1=JW Marriott and Hilton Resort, Tier 2=Courtyard and DoubleTree, Tier 3=Hampton Inn and Springhill, then Tier 4=Fairfield Inn and etc). Considering all the displacement, getting a room in Baytown is difficult. Evidently FEMA and purchased most rooms for local residents. Mainly guest appear to be poor families with many children. Large groups of people just loitering around outside smoking and drinking.  
+Checking in was uneventful. While I am a Diamond member with Hilton, I was still given a room next to the ice machine and elevator. There are two elevators for 4 floors. The elevators were very dirty with many spills and where people had been to the pool then walked back bare foot-dirty foot prints. The elevator was never cleaned. . There was outside seated with a patio and looked like a fireplace and grill for cooking. This hotel is designed for long term stays, and is not a business hotel.
+The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap...I just spent the night in the Home2Home hotel in Baytown, Texas. I travel daily and stay in 5 different hotels each week. I am at the top status level for Marriott and Hilton. While this is a Hilton brand hotel, I would consider it a Tier 4 hotel (Tier 1=JW Marriott and Hilton Resort, Tier 2=Courtyard and DoubleTree, Tier 3=Hampton Inn and Springhill, then Tier 4=Fairfield Inn and etc). Considering all the displacement, getting a room in Baytown is difficult. Evidently FEMA and purchased most rooms for local residents. Mainly guest appear to be poor families with many children. Large groups of people just loitering around outside smoking and drinking.  Checking in was uneventful. While I am a Diamond member with Hilton, I was still given a room next to the ice machine and elevator. There are two elevators for 4 floors. The elevators were very dirty with many spills and where people had been to the pool then walked back bare foot-dirty foot prints. The elevator was never cleaned. . There was outside seated with a patio and looked like a fireplace and grill for cooking. This hotel is designed for long term stays, and is not a business hotel.The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap dispenser attached to the wall. Seem to have a pretty good water pressure. There is free internet service, free parking, and the hotel is near many restaurants. However, the woman working the front desk seemed to know very little and the local restaurants.The breakfast was some kind of egg omelet wrapped in plastic, was to be heated in microwave. Very limited fruit. There was also waffles and oatmeal. Everything was very limited.I personally would not want to stay at this hotel. However, as mentioned, at this time hotel space is very limited, and prices are very high.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just spent the night in the Home2Home hotel in Baytown, Texas. I travel daily and stay in 5 different hotels each week. I am at the top status level for Marriott and Hilton. While this is a Hilton brand hotel, I would consider it a Tier 4 hotel (Tier 1=JW Marriott and Hilton Resort, Tier 2=Courtyard and DoubleTree, Tier 3=Hampton Inn and Springhill, then Tier 4=Fairfield Inn and etc). Considering all the displacement, getting a room in Baytown is difficult. Evidently FEMA and purchased most rooms for local residents. Mainly guest appear to be poor families with many children. Large groups of people just loitering around outside smoking and drinking.  
+Checking in was uneventful. While I am a Diamond member with Hilton, I was still given a room next to the ice machine and elevator. There are two elevators for 4 floors. The elevators were very dirty with many spills and where people had been to the pool then walked back bare foot-dirty foot prints. The elevator was never cleaned. . There was outside seated with a patio and looked like a fireplace and grill for cooking. This hotel is designed for long term stays, and is not a business hotel.
+The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap...I just spent the night in the Home2Home hotel in Baytown, Texas. I travel daily and stay in 5 different hotels each week. I am at the top status level for Marriott and Hilton. While this is a Hilton brand hotel, I would consider it a Tier 4 hotel (Tier 1=JW Marriott and Hilton Resort, Tier 2=Courtyard and DoubleTree, Tier 3=Hampton Inn and Springhill, then Tier 4=Fairfield Inn and etc). Considering all the displacement, getting a room in Baytown is difficult. Evidently FEMA and purchased most rooms for local residents. Mainly guest appear to be poor families with many children. Large groups of people just loitering around outside smoking and drinking.  Checking in was uneventful. While I am a Diamond member with Hilton, I was still given a room next to the ice machine and elevator. There are two elevators for 4 floors. The elevators were very dirty with many spills and where people had been to the pool then walked back bare foot-dirty foot prints. The elevator was never cleaned. . There was outside seated with a patio and looked like a fireplace and grill for cooking. This hotel is designed for long term stays, and is not a business hotel.The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap dispenser attached to the wall. Seem to have a pretty good water pressure. There is free internet service, free parking, and the hotel is near many restaurants. However, the woman working the front desk seemed to know very little and the local restaurants.The breakfast was some kind of egg omelet wrapped in plastic, was to be heated in microwave. Very limited fruit. There was also waffles and oatmeal. Everything was very limited.I personally would not want to stay at this hotel. However, as mentioned, at this time hotel space is very limited, and prices are very high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r526447920-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>526447920</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Modern, clean and nice hotel in Baytown</t>
+  </si>
+  <si>
+    <t>Erinn and Thomas at the front desk are incredible! Every interaction with them was above and beyond - I truly applaud them for their management and customer service during the chaos caused by Hurricane Harvey. Only had a few issues with housekeeping not restocking towels in my room and having to call the front desk 3 times for 1 towel. Breakfast is standard!  Overall, great experience. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn and Thomas at the front desk are incredible! Every interaction with them was above and beyond - I truly applaud them for their management and customer service during the chaos caused by Hurricane Harvey. Only had a few issues with housekeeping not restocking towels in my room and having to call the front desk 3 times for 1 towel. Breakfast is standard!  Overall, great experience. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r520959955-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>520959955</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Amazing hotel and Great Accessibility</t>
+  </si>
+  <si>
+    <t>I know I’m going to be sorry for raving about this hotel, because then everyone will want to stay.  But I have to say that Hilton did an amazing job setting up these suites, especially the accessible ones.  The staff was wonderful, very clean and very comfortable.  The rooms make being on the road and traveling much more comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I know I’m going to be sorry for raving about this hotel, because then everyone will want to stay.  But I have to say that Hilton did an amazing job setting up these suites, especially the accessible ones.  The staff was wonderful, very clean and very comfortable.  The rooms make being on the road and traveling much more comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r520611084-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>520611084</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>Best manager and staff</t>
+  </si>
+  <si>
+    <t>The manager Erinn and all her staff went up and beyond what their job requires. They did everything to make our stay wonderful and stress free. They always greeted us and everyone with a smile and always asking if we needed anything. The Hilton Hotel chain shouod be very proud of the mabager and staff there. We will definitely stay there again anytime we are in that area. Thank you again Erinn and staff for your kindness and making us feel at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>The manager Erinn and all her staff went up and beyond what their job requires. They did everything to make our stay wonderful and stress free. They always greeted us and everyone with a smile and always asking if we needed anything. The Hilton Hotel chain shouod be very proud of the mabager and staff there. We will definitely stay there again anytime we are in that area. Thank you again Erinn and staff for your kindness and making us feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r512390529-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>512390529</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>We love Home2</t>
+  </si>
+  <si>
+    <t>Our favorite place to stay when traveling.  So glad you finally built one in Baytown, Tx as I am here frequently.  This hotel has only been open three weeks, however, as we expect from Home2........Clean, modern, nice breakfast, spacious rooms with full kitchen, accepts dogs, excellent staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>michael9988, Guest Relations Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Our favorite place to stay when traveling.  So glad you finally built one in Baytown, Tx as I am here frequently.  This hotel has only been open three weeks, however, as we expect from Home2........Clean, modern, nice breakfast, spacious rooms with full kitchen, accepts dogs, excellent staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r506462453-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>506462453</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Beautiful NEW hotel</t>
+  </si>
+  <si>
+    <t>This hotel is gorgeous!!! The KING  suite has a nice  bathroom with stand up shower. The kitchen has a full size stainless steel refrigerator, sink and microwave. The beautiful cabinets come complete with dishes and cookware. The beds are soooo comfortable with Serta mattresses. There is a workout facility with TV monitors on the equipment. You can even use earplugs if you wish. Right next to the workout facility is a laundry room with state of the art washers and dryers.  Outside is a beautiful pool and BBQ grilling area. The staff is very professional and will take care of you. You won't be disappointed in this hotel. I book all of our guests here for business.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>This hotel is gorgeous!!! The KING  suite has a nice  bathroom with stand up shower. The kitchen has a full size stainless steel refrigerator, sink and microwave. The beautiful cabinets come complete with dishes and cookware. The beds are soooo comfortable with Serta mattresses. There is a workout facility with TV monitors on the equipment. You can even use earplugs if you wish. Right next to the workout facility is a laundry room with state of the art washers and dryers.  Outside is a beautiful pool and BBQ grilling area. The staff is very professional and will take care of you. You won't be disappointed in this hotel. I book all of our guests here for business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r505878839-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>505878839</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Hospitality at its best</t>
+  </si>
+  <si>
+    <t>Checked in under 2min. Rooms are spacioud, every employee is happy to help and acknowledge you. Breakfast is delicious. Brittany is excellent and serves as an excellent front DeDesHostess. Regina in sales knows her stuff and goes above and beyond to ensure your stay is top quality. Very happy with all aspects of this new HotelMoreShow less</t>
+  </si>
+  <si>
+    <t>michael9988, Guest Relations Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Checked in under 2min. Rooms are spacioud, every employee is happy to help and acknowledge you. Breakfast is delicious. Brittany is excellent and serves as an excellent front DeDesHostess. Regina in sales knows her stuff and goes above and beyond to ensure your stay is top quality. Very happy with all aspects of this new HotelMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1079,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1111,1717 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>99</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>100</v>
+      </c>
+      <c r="X10" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>121</v>
+      </c>
+      <c r="X13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>121</v>
+      </c>
+      <c r="X14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>121</v>
+      </c>
+      <c r="X15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" t="s">
+        <v>156</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>121</v>
+      </c>
+      <c r="X16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X18" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>165</v>
+      </c>
+      <c r="X19" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>184</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>148</v>
+      </c>
+      <c r="O20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>165</v>
+      </c>
+      <c r="X20" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+      <c r="O22" t="s">
+        <v>52</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>165</v>
+      </c>
+      <c r="X22" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+      <c r="X23" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>207</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" t="s">
+        <v>209</v>
+      </c>
+      <c r="K24" t="s">
+        <v>210</v>
+      </c>
+      <c r="L24" t="s">
+        <v>211</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>165</v>
+      </c>
+      <c r="X24" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" t="s">
+        <v>216</v>
+      </c>
+      <c r="K25" t="s">
+        <v>217</v>
+      </c>
+      <c r="L25" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_362.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_362.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,170 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r613023643-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>55456</t>
+  </si>
+  <si>
+    <t>12392416</t>
+  </si>
+  <si>
+    <t>613023643</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Enjoyed my stay. Torri (front desk) was great and went out of her way to help with the breakfast problem (went to work before breakfast started)  by arranging a breakfast bag for mr to task to work. Had problem with internet but Torri helped fix it and it was greatly appreciated.. Thanks Torri...</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r592593094-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>592593094</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome Stay</t>
+  </si>
+  <si>
+    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r611739350-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>611739350</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location.  Very Friendly staff.  Suites are spacious and comfcomfort.  Very clean.  I recommend this property to anyone staying in the Baytown area.  Staff made absolabsol sure all my needs were met!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r611198469-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>611198469</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>A pleasant surprise! Must be some new owners in town.</t>
+  </si>
+  <si>
+    <t>A pleasant stay at a very nice property. After 50 years of Business travel, I have become accustomed to expecting less while paying more, without being appreciated as a paying customer. Not this time!This is my first stay at a 'Home 2'. I will stay here again if and when I return. Clean rooms and beds. Everything was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r609437473-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>609437473</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>No Way After Today</t>
+  </si>
+  <si>
+    <t>I live local and due to an air conditioning issue at my home we decided to stay at a hotel.Home 2 Suites were newer so I selected the property. Ms. Tori was professional and so nice to incoming guests, i would hire her if I had a place for her. We checked in and were given suite 220. On arrival it smelled musty and not so clean. In the restroom laid a giant roach. About that time Ms. Tori called to check on us. I informed her about the giant roach in the restroom and thought all else was ok. She offered to come and remove the roach and move us to another room and I declined. This was a mistake.
+After taking a very poor shower due to a dirty shower head with no pressure we found when climbing into bed the linens were not fresh. The pillow cases smelled of someone else’s head and the sheets were not clean. It was late so I attempted to plow on and make it till morning. Here I sit at 3.21 am waiting for morning and looking forward to leaving this nasty place. As a local I am so disappointed. If you look at my many reviews you can see I have stayed at places far and wide and even in the most remote and poor areas I have never found a place to sleep this nasty. And finally Hilton, why...I live local and due to an air conditioning issue at my home we decided to stay at a hotel.Home 2 Suites were newer so I selected the property. Ms. Tori was professional and so nice to incoming guests, i would hire her if I had a place for her. We checked in and were given suite 220. On arrival it smelled musty and not so clean. In the restroom laid a giant roach. About that time Ms. Tori called to check on us. I informed her about the giant roach in the restroom and thought all else was ok. She offered to come and remove the roach and move us to another room and I declined. This was a mistake.After taking a very poor shower due to a dirty shower head with no pressure we found when climbing into bed the linens were not fresh. The pillow cases smelled of someone else’s head and the sheets were not clean. It was late so I attempted to plow on and make it till morning. Here I sit at 3.21 am waiting for morning and looking forward to leaving this nasty place. As a local I am so disappointed. If you look at my many reviews you can see I have stayed at places far and wide and even in the most remote and poor areas I have never found a place to sleep this nasty. And finally Hilton, why do you put a place for smokers right at the front door? Every guest has to smell a nasty ashtray and smoke on arrival.MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I live local and due to an air conditioning issue at my home we decided to stay at a hotel.Home 2 Suites were newer so I selected the property. Ms. Tori was professional and so nice to incoming guests, i would hire her if I had a place for her. We checked in and were given suite 220. On arrival it smelled musty and not so clean. In the restroom laid a giant roach. About that time Ms. Tori called to check on us. I informed her about the giant roach in the restroom and thought all else was ok. She offered to come and remove the roach and move us to another room and I declined. This was a mistake.
+After taking a very poor shower due to a dirty shower head with no pressure we found when climbing into bed the linens were not fresh. The pillow cases smelled of someone else’s head and the sheets were not clean. It was late so I attempted to plow on and make it till morning. Here I sit at 3.21 am waiting for morning and looking forward to leaving this nasty place. As a local I am so disappointed. If you look at my many reviews you can see I have stayed at places far and wide and even in the most remote and poor areas I have never found a place to sleep this nasty. And finally Hilton, why...I live local and due to an air conditioning issue at my home we decided to stay at a hotel.Home 2 Suites were newer so I selected the property. Ms. Tori was professional and so nice to incoming guests, i would hire her if I had a place for her. We checked in and were given suite 220. On arrival it smelled musty and not so clean. In the restroom laid a giant roach. About that time Ms. Tori called to check on us. I informed her about the giant roach in the restroom and thought all else was ok. She offered to come and remove the roach and move us to another room and I declined. This was a mistake.After taking a very poor shower due to a dirty shower head with no pressure we found when climbing into bed the linens were not fresh. The pillow cases smelled of someone else’s head and the sheets were not clean. It was late so I attempted to plow on and make it till morning. Here I sit at 3.21 am waiting for morning and looking forward to leaving this nasty place. As a local I am so disappointed. If you look at my many reviews you can see I have stayed at places far and wide and even in the most remote and poor areas I have never found a place to sleep this nasty. And finally Hilton, why do you put a place for smokers right at the front door? Every guest has to smell a nasty ashtray and smoke on arrival.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r608101733-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>608101733</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>If you need to stay in Baytown, this is the place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very comfortable, clean, quiet and close to everything you may need. Ms Torri and Ms Brittany are very helpful. The pool area and gas bbq grills are a great place to grill and relax if you don't want to go out for dinner. Housekeeping staff are very nice and thorough. I stayed here for 10 days and the next time I come this way, this is where I will stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r606193545-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>606193545</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>Safety manager</t>
+  </si>
+  <si>
+    <t>Pleasant experience staff is super friendly. The building has great lighting inside and out. My wife and daughters loved visiting me and the room was very spacious. Definitely accommodated my whole family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r604801753-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>604801753</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>Was a good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I enjoyed my stay here more than most hotels I've stayed at. The only thing I can think of that was bad was trying to connect my xbox every single day which sometimes took way too long but the stay was pleasant. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r603024508-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
-    <t>55456</t>
-  </si>
-  <si>
-    <t>12392416</t>
-  </si>
-  <si>
     <t>603024508</t>
   </si>
   <si>
@@ -171,12 +323,6 @@
     <t>Was great location great people there food was excellant I will be attending again soon clean rooms etc the best hotel I've been inn I cant complain my kids had great time bay town always has the best weather</t>
   </si>
   <si>
-    <t>August 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r602564996-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -198,10 +344,10 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 6 days ago</t>
-  </si>
-  <si>
-    <t>Responded 6 days ago</t>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
   </si>
   <si>
     <t>At first I really didn't realize it, but then my girlfriend pointed it out so I started paying attention to how attentive they were to others (of the white decent) than they were to us...they would speak to us, but show other guests special attention...they would make sure that they wanted for nothing, laugh and talk with them, then walk right past us...I figured maybe because of the part of town we were in, that's how they treat blacks out there...I love the hotel, just won't be staying at this location again...thanks...More</t>
@@ -222,40 +368,73 @@
     <t>Location, price, cleanliness, friendly staff, room setup...Everything was great. Did a last minute booking, called to confirm that my reservation was received and asked for extra towels and for my partner to be added to the reservation as he was arriving before me. The representative was helpful and accommodating to all of my requests. This was the first time that I actually had extra towels already placed in my room before arriving....that was a great touch. MoreShow less</t>
   </si>
   <si>
-    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
   </si>
   <si>
     <t>Location, price, cleanliness, friendly staff, room setup...Everything was great. Did a last minute booking, called to confirm that my reservation was received and asked for extra towels and for my partner to be added to the reservation as he was arriving before me. The representative was helpful and accommodating to all of my requests. This was the first time that I actually had extra towels already placed in my room before arriving....that was a great touch. More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r592593094-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
-  </si>
-  <si>
-    <t>592593094</t>
-  </si>
-  <si>
-    <t>07/02/2018</t>
-  </si>
-  <si>
-    <t>Awesome Stay</t>
-  </si>
-  <si>
-    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>This hotel is located near various restaurants and stores. It’s very clean and tidy and checking in is so easy. The hotel room is equipped with a refrigerator, microwave, utensils, etc. The staff is extremely polite and hospitable and will always treat you with respect and a smile. The rooms are spacious and very well maintained. No funky odors or stains, etc. They have a good variety of food at breakfast (complimentary). They also have free laundry services that is 24 hrs. I have no complaints for this hotel! I don’t think I’ll be staying anywhere else during my future trips to Baytown. Great experience and I definitely recommend this establishment. More</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r598689783-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>598689783</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This appears to be a newer hotel in Baytown. My wife and I had an excellent stay. The room was very clean and the staff was very friendly and helpful. We were in town for my grandmother’s funeral, so the hotel was a small comfort and escape from everything. I would definitely stay here again in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Andrew R, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>This appears to be a newer hotel in Baytown. My wife and I had an excellent stay. The room was very clean and the staff was very friendly and helpful. We were in town for my grandmother’s funeral, so the hotel was a small comfort and escape from everything. I would definitely stay here again in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r598678710-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>598678710</t>
+  </si>
+  <si>
+    <t>Not bad put room for better</t>
+  </si>
+  <si>
+    <t>Breakfast selection quality wasn’t of expectation. Pool was closed to 5pm, but didn’t open at all which caused us to miss the opportunity to go to Pirates Bay! Overall, would stay again at last resort.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Breakfast selection quality wasn’t of expectation. Pool was closed to 5pm, but didn’t open at all which caused us to miss the opportunity to go to Pirates Bay! Overall, would stay again at last resort.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r596412108-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>596412108</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>Company stayed here on business in area. Great staff. They were all very helpful especially Amanda with taking care of all our reservations and billing. I would recommend this motel to business travelers.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Company stayed here on business in area. Great staff. They were all very helpful especially Amanda with taking care of all our reservations and billing. I would recommend this motel to business travelers.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r591522286-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
@@ -300,6 +479,50 @@
     <t>Rooms are wonderful and spacious, kitchen is large with dishwasher and full size fridge, breakfast offers good variety, and the staff is exceptionally welcoming and friendly.Awesome complimentary laundry facility and the hotel is very quiet for being so close to the highway. You can't go wrong with this hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r583971462-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>583971462</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfortable</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay. It’s a nice new building and it’s close to good restaurants &amp; shopping. It was our first time to Baytown and we will be returning and staying here again later this year. Only wish they had a better breakfast selection.MoreShow less</t>
+  </si>
+  <si>
+    <t>We thoroughly enjoyed our stay. It’s a nice new building and it’s close to good restaurants &amp; shopping. It was our first time to Baytown and we will be returning and staying here again later this year. Only wish they had a better breakfast selection.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r583444912-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>583444912</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Modern luxury suites!</t>
+  </si>
+  <si>
+    <t>Took a trip to Kemah Boardwalk for memorial weekend. Saw a few hotels that were close but decided to go with Home2 Suites since a coworker of mine stayed there previously. This was the best decision we made the whole trip. Our first impression was made by the sweet ladies that checked us in at the front desk. They exemplified how customer service should be at a extended stay by greeted us with warm smiles and welcome bags filled with snacks and water! 
+After going up the smart elevator we made it to our clean and cozy home for the weekend. My favorite part about our suite was that they thought of all of the details. There were outlets everywhere you needed them!! A smart-thermostat on the wall that controlled our A/c unit. It also had lots of lighting both natural from our oversized window and from all of the modern lamps in each corner of the rooms.
+One of the bedside lamps even had a nightlight setting!  There was plenty of cabinet space and drawers for all personal items and completed with a niche for hanging items and an ironing set.
+ Our suite also included top notch stainless steel appliances and was equipped with ceramic breakfast and dinner dishes and glass drink ware. We also had our own complimentary  Keurig coffee and tea station in our own room in case we did not feel like venturing downstairs. 
+The bathroom...Took a trip to Kemah Boardwalk for memorial weekend. Saw a few hotels that were close but decided to go with Home2 Suites since a coworker of mine stayed there previously. This was the best decision we made the whole trip. Our first impression was made by the sweet ladies that checked us in at the front desk. They exemplified how customer service should be at a extended stay by greeted us with warm smiles and welcome bags filled with snacks and water! After going up the smart elevator we made it to our clean and cozy home for the weekend. My favorite part about our suite was that they thought of all of the details. There were outlets everywhere you needed them!! A smart-thermostat on the wall that controlled our A/c unit. It also had lots of lighting both natural from our oversized window and from all of the modern lamps in each corner of the rooms.One of the bedside lamps even had a nightlight setting!  There was plenty of cabinet space and drawers for all personal items and completed with a niche for hanging items and an ironing set. Our suite also included top notch stainless steel appliances and was equipped with ceramic breakfast and dinner dishes and glass drink ware. We also had our own complimentary  Keurig coffee and tea station in our own room in case we did not feel like venturing downstairs. The bathroom felt open and CLEAN!!! Which was such a relief from the previous hotel we stayed at before Home2 Suites. The design was very modern and sleek. (See pics) There was a large walk in shower with a sliding door with a rainfall shower head which made coming home from the long days of walking so relaxing!Lastly, I cannot rave enough about how comfortable the beds were. They had pillow top mattresses and supplied you with extra comfy pillows. They even thought ahead and kept an extra set blankets and pillows in one of the cabinets.Overall our experience was AMAZING! We aren’t ones to normally use amenities and care a lot more about the comfort of the place we spend the most time at and Home2 Suites blew us away with the perfect mix of luxury and comfort!MoreShow less</t>
+  </si>
+  <si>
+    <t>Took a trip to Kemah Boardwalk for memorial weekend. Saw a few hotels that were close but decided to go with Home2 Suites since a coworker of mine stayed there previously. This was the best decision we made the whole trip. Our first impression was made by the sweet ladies that checked us in at the front desk. They exemplified how customer service should be at a extended stay by greeted us with warm smiles and welcome bags filled with snacks and water! 
+After going up the smart elevator we made it to our clean and cozy home for the weekend. My favorite part about our suite was that they thought of all of the details. There were outlets everywhere you needed them!! A smart-thermostat on the wall that controlled our A/c unit. It also had lots of lighting both natural from our oversized window and from all of the modern lamps in each corner of the rooms.
+One of the bedside lamps even had a nightlight setting!  There was plenty of cabinet space and drawers for all personal items and completed with a niche for hanging items and an ironing set.
+ Our suite also included top notch stainless steel appliances and was equipped with ceramic breakfast and dinner dishes and glass drink ware. We also had our own complimentary  Keurig coffee and tea station in our own room in case we did not feel like venturing downstairs. 
+The bathroom...Took a trip to Kemah Boardwalk for memorial weekend. Saw a few hotels that were close but decided to go with Home2 Suites since a coworker of mine stayed there previously. This was the best decision we made the whole trip. Our first impression was made by the sweet ladies that checked us in at the front desk. They exemplified how customer service should be at a extended stay by greeted us with warm smiles and welcome bags filled with snacks and water! After going up the smart elevator we made it to our clean and cozy home for the weekend. My favorite part about our suite was that they thought of all of the details. There were outlets everywhere you needed them!! A smart-thermostat on the wall that controlled our A/c unit. It also had lots of lighting both natural from our oversized window and from all of the modern lamps in each corner of the rooms.One of the bedside lamps even had a nightlight setting!  There was plenty of cabinet space and drawers for all personal items and completed with a niche for hanging items and an ironing set. Our suite also included top notch stainless steel appliances and was equipped with ceramic breakfast and dinner dishes and glass drink ware. We also had our own complimentary  Keurig coffee and tea station in our own room in case we did not feel like venturing downstairs. The bathroom felt open and CLEAN!!! Which was such a relief from the previous hotel we stayed at before Home2 Suites. The design was very modern and sleek. (See pics) There was a large walk in shower with a sliding door with a rainfall shower head which made coming home from the long days of walking so relaxing!Lastly, I cannot rave enough about how comfortable the beds were. They had pillow top mattresses and supplied you with extra comfy pillows. They even thought ahead and kept an extra set blankets and pillows in one of the cabinets.Overall our experience was AMAZING! We aren’t ones to normally use amenities and care a lot more about the comfort of the place we spend the most time at and Home2 Suites blew us away with the perfect mix of luxury and comfort!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r576952449-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -363,6 +586,51 @@
     <t>This is a very clean, modern and comfortable hotel with a nice kitchenette. Beds were super comfortable and staff was friendly. The complimentary breakfast was average. I liked the green flush option on the commode.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r575493185-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>575493185</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Great place for family stay, nice and clean.  Very comfortable beds. Breakfast was satisfying.  For a hotel the coffee was very good. Family enjoyed the rooms and a good nights sleep.  The privacy curtains separating the beds was something I had not seen before.  I thought this was a great addition.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great place for family stay, nice and clean.  Very comfortable beds. Breakfast was satisfying.  For a hotel the coffee was very good. Family enjoyed the rooms and a good nights sleep.  The privacy curtains separating the beds was something I had not seen before.  I thought this was a great addition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r572927694-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>572927694</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and new </t>
+  </si>
+  <si>
+    <t>Stayed two nights while in town visiting a friend. While it is a new and clean hotel, I do not think I would stay here again. Pleasant desk staff. Breakfast was a disappointment. Bagels, bread, fruit and a few other things including microwave sandwiches and microwave eggs. Thought it would be comparable to Garden Inn’s breakfast. I Left a note for housekeeping to please leave 4 regular coffees, 10 creamers and no decaf. Was left 3 coffee and no creamers. I did love the dispensers in the shower and the towels are great. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Jamer S, Guest Relations Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Stayed two nights while in town visiting a friend. While it is a new and clean hotel, I do not think I would stay here again. Pleasant desk staff. Breakfast was a disappointment. Bagels, bread, fruit and a few other things including microwave sandwiches and microwave eggs. Thought it would be comparable to Garden Inn’s breakfast. I Left a note for housekeeping to please leave 4 regular coffees, 10 creamers and no decaf. Was left 3 coffee and no creamers. I did love the dispensers in the shower and the towels are great. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r569784688-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -426,6 +694,68 @@
     <t>Look for another hotel if you are looking for a CLEAN room and if you are a late breakfast eater. They don't have plenty of supplies for breakfast. This went on for 3 days in a row for us. The silverwares and plates are dirty in the room. So clean all before using them. Nice hotel just need the staff changed or trained to clean and provide quality service in the rooms and at the breakfast areas. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r565495403-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>565495403</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t>The Good and The Bad</t>
+  </si>
+  <si>
+    <t>Spent a couple of days recently at this hotel.  We selected this mainly because there was not a price increase on Sunday as some of the other area hotels were doing. This is a fairly new hotel, the room and its furnishings were very good, the greeting by the staff was on par with most Hilton properties.  The down side, the breakfast bar was very short on selections both mornings were there, and we were there at least an hour before it was scheduled to close. Also, the second day, the power to the toaster and the microwave kept going off so we were able to toast or heat up our breakfast. The other down side which was not published on their website, there is no housekeeping on the week-end which also means no resupply of the coffee, etc. Also, this is a pet friendly hotel which people should know if they have pet allergies. We like the hotel, there are just a few areas that need some closer attention.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Spent a couple of days recently at this hotel.  We selected this mainly because there was not a price increase on Sunday as some of the other area hotels were doing. This is a fairly new hotel, the room and its furnishings were very good, the greeting by the staff was on par with most Hilton properties.  The down side, the breakfast bar was very short on selections both mornings were there, and we were there at least an hour before it was scheduled to close. Also, the second day, the power to the toaster and the microwave kept going off so we were able to toast or heat up our breakfast. The other down side which was not published on their website, there is no housekeeping on the week-end which also means no resupply of the coffee, etc. Also, this is a pet friendly hotel which people should know if they have pet allergies. We like the hotel, there are just a few areas that need some closer attention.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r562588676-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>562588676</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Diamond Member Review - There Are Issues</t>
+  </si>
+  <si>
+    <t>I wanted this hotel to be great since they aren't many Hilton options in Baytown, but it just isn't. I stayed here for more than a week so I saw pretty much everything it has to offer. 
+First - The Good
+-- The staff is friendly. They don't know much about the hotel, but they are friendly.
+-- The rooms are spacious. They are clean, but don't expect it to last. Keep reading.
+-- Free parking and plenty of parking.
+-- Beds are very comfy.
+-- AC works great. Very cold!
+Now For the Not So Good
+-- The hotel is like an apartment Complex. I'd estimate 50% of the hotel is full of people who has been here since Harvey and treat it like an apartment. You see lots of arguments, people walking around in robes, the police visting are a regular thing, etc. If you're expecting other travelers, this isn't the place for you. I posted a picture of the letter that is posted in the hotel. Read it for yourself.
+-- There are free washers and dryers, but unless you're willing to get up at 4:30 in the morning they run non stop. I'm confident people staying here long term are washing clothes for friends and family. There are literally large garbage bags of clothes some people are bringning in to wash. They should simply start charging and this would stop. 
+-- There is a gym. It's...I wanted this hotel to be great since they aren't many Hilton options in Baytown, but it just isn't. I stayed here for more than a week so I saw pretty much everything it has to offer. First - The Good-- The staff is friendly. They don't know much about the hotel, but they are friendly.-- The rooms are spacious. They are clean, but don't expect it to last. Keep reading.-- Free parking and plenty of parking.-- Beds are very comfy.-- AC works great. Very cold!Now For the Not So Good-- The hotel is like an apartment Complex. I'd estimate 50% of the hotel is full of people who has been here since Harvey and treat it like an apartment. You see lots of arguments, people walking around in robes, the police visting are a regular thing, etc. If you're expecting other travelers, this isn't the place for you. I posted a picture of the letter that is posted in the hotel. Read it for yourself.-- There are free washers and dryers, but unless you're willing to get up at 4:30 in the morning they run non stop. I'm confident people staying here long term are washing clothes for friends and family. There are literally large garbage bags of clothes some people are bringning in to wash. They should simply start charging and this would stop. -- There is a gym. It's nice. Problem is that one of the displays on one of the treadmills is already broken. This makes it impossible to see how fast you're going. See picture. There are also people just hanging out charging cell phones and coming in to get the bottled water. -- There are walk in showers. My shower door was already off the hinges within a week.-- There is a safe in the room.....but it didn't work originally and I had to call maintenace. -- The light above the sink was out during the entire stay. Was never repaired.-- Housekeeping left numerous items in my room throughout the stay. One day it was an iron, another day was dirty rags, another was a bottle of spray cleaner. -- Long Term Pets - There are HUGE dogs who have been living here for months (see above). I can only imagine what these rooms will look like when they leave. -- Breakfast - It's not good or bad, it's just basic (cereal, coffee, etc). -- Knowledge of staff - They just don't know much and it seems to be a training issue. They didn't even know about the weekend cleaning schedule when I asked (even though there is a sign in the room that states to talk to the staff if you need weekend cleaning). The Mariott Springhill Suites (and yes I'm Hilton Diamond) down the street is a much better option. They cater to traverlers and also have a restaruant and bar.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>I wanted this hotel to be great since they aren't many Hilton options in Baytown, but it just isn't. I stayed here for more than a week so I saw pretty much everything it has to offer. 
+First - The Good
+-- The staff is friendly. They don't know much about the hotel, but they are friendly.
+-- The rooms are spacious. They are clean, but don't expect it to last. Keep reading.
+-- Free parking and plenty of parking.
+-- Beds are very comfy.
+-- AC works great. Very cold!
+Now For the Not So Good
+-- The hotel is like an apartment Complex. I'd estimate 50% of the hotel is full of people who has been here since Harvey and treat it like an apartment. You see lots of arguments, people walking around in robes, the police visting are a regular thing, etc. If you're expecting other travelers, this isn't the place for you. I posted a picture of the letter that is posted in the hotel. Read it for yourself.
+-- There are free washers and dryers, but unless you're willing to get up at 4:30 in the morning they run non stop. I'm confident people staying here long term are washing clothes for friends and family. There are literally large garbage bags of clothes some people are bringning in to wash. They should simply start charging and this would stop. 
+-- There is a gym. It's...I wanted this hotel to be great since they aren't many Hilton options in Baytown, but it just isn't. I stayed here for more than a week so I saw pretty much everything it has to offer. First - The Good-- The staff is friendly. They don't know much about the hotel, but they are friendly.-- The rooms are spacious. They are clean, but don't expect it to last. Keep reading.-- Free parking and plenty of parking.-- Beds are very comfy.-- AC works great. Very cold!Now For the Not So Good-- The hotel is like an apartment Complex. I'd estimate 50% of the hotel is full of people who has been here since Harvey and treat it like an apartment. You see lots of arguments, people walking around in robes, the police visting are a regular thing, etc. If you're expecting other travelers, this isn't the place for you. I posted a picture of the letter that is posted in the hotel. Read it for yourself.-- There are free washers and dryers, but unless you're willing to get up at 4:30 in the morning they run non stop. I'm confident people staying here long term are washing clothes for friends and family. There are literally large garbage bags of clothes some people are bringning in to wash. They should simply start charging and this would stop. -- There is a gym. It's nice. Problem is that one of the displays on one of the treadmills is already broken. This makes it impossible to see how fast you're going. See picture. There are also people just hanging out charging cell phones and coming in to get the bottled water. -- There are walk in showers. My shower door was already off the hinges within a week.-- There is a safe in the room.....but it didn't work originally and I had to call maintenace. -- The light above the sink was out during the entire stay. Was never repaired.-- Housekeeping left numerous items in my room throughout the stay. One day it was an iron, another day was dirty rags, another was a bottle of spray cleaner. -- Long Term Pets - There are HUGE dogs who have been living here for months (see above). I can only imagine what these rooms will look like when they leave. -- Breakfast - It's not good or bad, it's just basic (cereal, coffee, etc). -- Knowledge of staff - They just don't know much and it seems to be a training issue. They didn't even know about the weekend cleaning schedule when I asked (even though there is a sign in the room that states to talk to the staff if you need weekend cleaning). The Mariott Springhill Suites (and yes I'm Hilton Diamond) down the street is a much better option. They cater to traverlers and also have a restaruant and bar.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r557396615-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -441,9 +771,6 @@
     <t>It was perfect accommodations for my husband and two kids! We stayed in the king suite! I loved the use of the washer and dryers downstairs! It was like a little apartment! We will definitely stay here again! Very clean rooms and staff was nice. Location was great! close to everything! MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>It was perfect accommodations for my husband and two kids! We stayed in the king suite! I loved the use of the washer and dryers downstairs! It was like a little apartment! We will definitely stay here again! Very clean rooms and staff was nice. Location was great! close to everything! More</t>
   </si>
   <si>
@@ -486,12 +813,48 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Nice new hotel.  Bright rooms, convenient layout, cool little kitchen area.  Excellent location for petro/chem business travelers, close to plant and restaurants.  All the good, however, was negated by what I can only assumed are FEMA families overrunning the entire hotel.  Children playing in hallways, families camping out in breakfast area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r542563893-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>542563893</t>
+  </si>
+  <si>
+    <t>11/21/2017</t>
+  </si>
+  <si>
+    <t>Disappointment in Baytown</t>
+  </si>
+  <si>
+    <t>Everything seemed to go wrong with this property, from not getting the room we reserved to the manner in which that and other problems were handled.  A sore spot for Hilton!  The manager should be fired; very rude and unfriendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Erinn V, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Everything seemed to go wrong with this property, from not getting the room we reserved to the manner in which that and other problems were handled.  A sore spot for Hilton!  The manager should be fired; very rude and unfriendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r541297389-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>541297389</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>Overcharged</t>
+  </si>
+  <si>
+    <t>On top of the $127.53 priceline charged me, the hotel without notice charge an additional $168.74 that they claim was a simple mistake by the hotel clerk.I was charged overdraft fees as well this hotel cared nothing about. This is outrageous.No refund yet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r534225317-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -508,9 +871,6 @@
   </si>
   <si>
     <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>Erinn V, General Manager at Home2 Suites by Hilton Baytown, responded to this reviewResponded November 14, 2017</t>
@@ -562,6 +922,42 @@
 The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap...I just spent the night in the Home2Home hotel in Baytown, Texas. I travel daily and stay in 5 different hotels each week. I am at the top status level for Marriott and Hilton. While this is a Hilton brand hotel, I would consider it a Tier 4 hotel (Tier 1=JW Marriott and Hilton Resort, Tier 2=Courtyard and DoubleTree, Tier 3=Hampton Inn and Springhill, then Tier 4=Fairfield Inn and etc). Considering all the displacement, getting a room in Baytown is difficult. Evidently FEMA and purchased most rooms for local residents. Mainly guest appear to be poor families with many children. Large groups of people just loitering around outside smoking and drinking.  Checking in was uneventful. While I am a Diamond member with Hilton, I was still given a room next to the ice machine and elevator. There are two elevators for 4 floors. The elevators were very dirty with many spills and where people had been to the pool then walked back bare foot-dirty foot prints. The elevator was never cleaned. . There was outside seated with a patio and looked like a fireplace and grill for cooking. This hotel is designed for long term stays, and is not a business hotel.The furniture consisted of a computer desk, a table, and sofa. The mattress, while appeared to be new was already worn and was sagging (woke up with a sore back). Bathroom was a stand-alone shower, with a soap dispenser attached to the wall. Seem to have a pretty good water pressure. There is free internet service, free parking, and the hotel is near many restaurants. However, the woman working the front desk seemed to know very little and the local restaurants.The breakfast was some kind of egg omelet wrapped in plastic, was to be heated in microwave. Very limited fruit. There was also waffles and oatmeal. Everything was very limited.I personally would not want to stay at this hotel. However, as mentioned, at this time hotel space is very limited, and prices are very high.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r527480256-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>527480256</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Best service</t>
+  </si>
+  <si>
+    <t>excellent service, clean facility, exceptional customer service!!!! My family and I stayed for almost a whole month after being displaced from hurricane Harvey. We felt welcome, always met us with a big smile. Room service kept our rooms clean and replenish our basic commodities. We felt like a home, internet, wash and dryer free of charge. We were blessed to be with wonderful people.MoreShow less</t>
+  </si>
+  <si>
+    <t>excellent service, clean facility, exceptional customer service!!!! My family and I stayed for almost a whole month after being displaced from hurricane Harvey. We felt welcome, always met us with a big smile. Room service kept our rooms clean and replenish our basic commodities. We felt like a home, internet, wash and dryer free of charge. We were blessed to be with wonderful people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r526870693-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>526870693</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>I was recently flooded out of my home due to Hurricane Harvey and was fortunate enough to find a room at this hotel. However, when the time has come to extend our stay through FEMA we are being put out with no explanation. I am a senior citizens with a pet. When I called corporate office I was told it was the general managers decision. This is terrible and insensitive to people who have lost everything and are trying to get contractors to begin repairs and now we have to find another hotel in which they are all booked because 1000's of people have been displaced. Which means it is virtually impossible to find another hotel at this time. Great job general manager you are really Houston strong.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was recently flooded out of my home due to Hurricane Harvey and was fortunate enough to find a room at this hotel. However, when the time has come to extend our stay through FEMA we are being put out with no explanation. I am a senior citizens with a pet. When I called corporate office I was told it was the general managers decision. This is terrible and insensitive to people who have lost everything and are trying to get contractors to begin repairs and now we have to find another hotel in which they are all booked because 1000's of people have been displaced. Which means it is virtually impossible to find another hotel at this time. Great job general manager you are really Houston strong.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r526447920-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
   </si>
   <si>
@@ -617,6 +1013,39 @@
   </si>
   <si>
     <t>The manager Erinn and all her staff went up and beyond what their job requires. They did everything to make our stay wonderful and stress free. They always greeted us and everyone with a smile and always asking if we needed anything. The Hilton Hotel chain shouod be very proud of the mabager and staff there. We will definitely stay there again anytime we are in that area. Thank you again Erinn and staff for your kindness and making us feel at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r514117180-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>514117180</t>
+  </si>
+  <si>
+    <t>08/16/2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel</t>
+  </si>
+  <si>
+    <t>The hotel exceeded my expectations. The staff was very friendly &amp; accommodating. The beds, pillows &amp; room was absolutely fabulous. I loved the sunblocking shade, it made you feel like you were still in the dark when the sun was shining bright.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel exceeded my expectations. The staff was very friendly &amp; accommodating. The beds, pillows &amp; room was absolutely fabulous. I loved the sunblocking shade, it made you feel like you were still in the dark when the sun was shining bright.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r513451209-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
+  </si>
+  <si>
+    <t>513451209</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Marvelous</t>
+  </si>
+  <si>
+    <t>I've stayed at my fair share of hotels across the globe and I must say my expectations are extremely high. You guys were simply marvelous! Well done darlings.Clean, Quiet, Quick check-in, complementary breakfast, complementary laundry service, conveniently located, and stylish contour furnishings.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55456-d12392416-r512390529-Home2_Suites_by_Hilton_Baytown-Baytown_Texas.html</t>
@@ -1232,10 +1661,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1287,7 +1716,7 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>58</v>
@@ -1295,22 +1724,12 @@
       <c r="O3" t="s">
         <v>59</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1361,10 +1780,10 @@
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1385,14 +1804,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X4" t="s">
-        <v>69</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1408,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1417,43 +1832,49 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1890,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1478,53 +1899,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -1540,7 +1951,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1549,26 +1960,22 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>52</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
@@ -1578,14 +1985,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>91</v>
-      </c>
-      <c r="X7" t="s">
-        <v>92</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1601,7 +2004,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1610,53 +2013,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
         <v>52</v>
       </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1672,7 +2061,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1681,53 +2070,49 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>107</v>
-      </c>
-      <c r="X9" t="s">
-        <v>101</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -1743,7 +2128,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1752,31 +2137,31 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
       </c>
       <c r="R10" t="n">
         <v>4</v>
@@ -1791,14 +2176,10 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
         <v>100</v>
-      </c>
-      <c r="X10" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1814,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1823,49 +2204,53 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
       </c>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1881,7 +2266,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1890,49 +2275,53 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
@@ -1948,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1957,53 +2346,53 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2019,7 +2408,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2028,37 +2417,37 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2068,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2090,7 +2479,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2099,29 +2488,27 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
         <v>52</v>
       </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
@@ -2131,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="X15" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
@@ -2153,7 +2540,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2162,47 +2549,53 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
       <c r="O16" t="s">
-        <v>156</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="X16" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -2218,7 +2611,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2227,53 +2620,43 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="O17" t="s">
-        <v>164</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
@@ -2289,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2298,53 +2681,43 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2360,7 +2733,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2369,47 +2742,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="X19" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -2425,7 +2794,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2434,25 +2803,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2474,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="X20" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
@@ -2496,7 +2865,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2505,51 +2874,53 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="X21" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Y21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
@@ -2565,7 +2936,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2574,34 +2945,34 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2614,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="X22" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Y22" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
@@ -2636,7 +3007,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2645,30 +3016,34 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -2681,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="X23" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="Y23" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
@@ -2703,7 +3078,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2712,49 +3087,43 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="O24" t="s">
-        <v>156</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="X24" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="Y24" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -2770,7 +3139,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2779,34 +3148,34 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="J25" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="L25" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O25" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2815,13 +3184,1509 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>59</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>207</v>
+      </c>
+      <c r="X26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
         <v>219</v>
       </c>
-      <c r="X25" t="s">
+      <c r="L27" t="s">
         <v>220</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>223</v>
+      </c>
+      <c r="J28" t="s">
+        <v>224</v>
+      </c>
+      <c r="K28" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" t="s">
+        <v>226</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>227</v>
+      </c>
+      <c r="O28" t="s">
+        <v>107</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>197</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>207</v>
+      </c>
+      <c r="X29" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>236</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>237</v>
+      </c>
+      <c r="J30" t="s">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s">
+        <v>239</v>
+      </c>
+      <c r="L30" t="s">
+        <v>240</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>207</v>
+      </c>
+      <c r="X30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>243</v>
+      </c>
+      <c r="J31" t="s">
+        <v>244</v>
+      </c>
+      <c r="K31" t="s">
+        <v>245</v>
+      </c>
+      <c r="L31" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>247</v>
+      </c>
+      <c r="O31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>207</v>
+      </c>
+      <c r="X31" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>249</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" t="s">
+        <v>252</v>
+      </c>
+      <c r="L32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>207</v>
+      </c>
+      <c r="X32" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>257</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33" t="s">
+        <v>259</v>
+      </c>
+      <c r="L33" t="s">
+        <v>260</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>261</v>
+      </c>
+      <c r="X33" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>265</v>
+      </c>
+      <c r="J34" t="s">
+        <v>266</v>
+      </c>
+      <c r="K34" t="s">
+        <v>267</v>
+      </c>
+      <c r="L34" t="s">
+        <v>268</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>270</v>
+      </c>
+      <c r="J35" t="s">
+        <v>271</v>
+      </c>
+      <c r="K35" t="s">
+        <v>272</v>
+      </c>
+      <c r="L35" t="s">
+        <v>273</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>274</v>
+      </c>
+      <c r="O35" t="s">
+        <v>197</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>275</v>
+      </c>
+      <c r="X35" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>274</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>275</v>
+      </c>
+      <c r="X36" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>284</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>285</v>
+      </c>
+      <c r="J37" t="s">
+        <v>286</v>
+      </c>
+      <c r="K37" t="s">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s">
+        <v>288</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>274</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>275</v>
+      </c>
+      <c r="X37" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>247</v>
+      </c>
+      <c r="O38" t="s">
+        <v>59</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>275</v>
+      </c>
+      <c r="X38" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>297</v>
+      </c>
+      <c r="J39" t="s">
+        <v>298</v>
+      </c>
+      <c r="K39" t="s">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s">
+        <v>300</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>247</v>
+      </c>
+      <c r="O39" t="s">
+        <v>197</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>275</v>
+      </c>
+      <c r="X39" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>302</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>303</v>
+      </c>
+      <c r="J40" t="s">
+        <v>304</v>
+      </c>
+      <c r="K40" t="s">
+        <v>305</v>
+      </c>
+      <c r="L40" t="s">
+        <v>306</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>247</v>
+      </c>
+      <c r="O40" t="s">
+        <v>52</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>275</v>
+      </c>
+      <c r="X40" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>309</v>
+      </c>
+      <c r="J41" t="s">
+        <v>310</v>
+      </c>
+      <c r="K41" t="s">
+        <v>311</v>
+      </c>
+      <c r="L41" t="s">
+        <v>312</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>313</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>275</v>
+      </c>
+      <c r="X41" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>315</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>316</v>
+      </c>
+      <c r="J42" t="s">
+        <v>317</v>
+      </c>
+      <c r="K42" t="s">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s">
+        <v>319</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s">
+        <v>59</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>275</v>
+      </c>
+      <c r="X42" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>321</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>322</v>
+      </c>
+      <c r="J43" t="s">
+        <v>323</v>
+      </c>
+      <c r="K43" t="s">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s">
+        <v>325</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>313</v>
+      </c>
+      <c r="O43" t="s">
+        <v>59</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>275</v>
+      </c>
+      <c r="X43" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>327</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>328</v>
+      </c>
+      <c r="J44" t="s">
+        <v>329</v>
+      </c>
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="L44" t="s">
+        <v>331</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>313</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>313</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>337</v>
+      </c>
+      <c r="X45" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>340</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>341</v>
+      </c>
+      <c r="J46" t="s">
+        <v>342</v>
+      </c>
+      <c r="K46" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>345</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>275</v>
+      </c>
+      <c r="X46" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60768</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>347</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>348</v>
+      </c>
+      <c r="J47" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s">
+        <v>351</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>345</v>
+      </c>
+      <c r="O47" t="s">
+        <v>52</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>352</v>
+      </c>
+      <c r="X47" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
